--- a/data/trans_orig/P1426-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1426-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>29750</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19996</v>
+        <v>18524</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44202</v>
+        <v>41757</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03052443152324354</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02051666985567479</v>
+        <v>0.01900593433738586</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0453515016608325</v>
+        <v>0.04284296525648407</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>41</v>
@@ -764,19 +764,19 @@
         <v>44501</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31989</v>
+        <v>31467</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>58287</v>
+        <v>59249</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03326474004773901</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02391147193610231</v>
+        <v>0.02352169166732342</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04356931984815354</v>
+        <v>0.04428875807663125</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>68</v>
@@ -785,19 +785,19 @@
         <v>74252</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>59614</v>
+        <v>58393</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>96263</v>
+        <v>93578</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03210975956746037</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02577964245764738</v>
+        <v>0.02525185246990204</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04162832790855053</v>
+        <v>0.04046700086672824</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>944893</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>930441</v>
+        <v>932886</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>954647</v>
+        <v>956119</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9694755684767564</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9546484983391678</v>
+        <v>0.9571570347435159</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9794833301443253</v>
+        <v>0.980994065662614</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1206</v>
@@ -835,19 +835,19 @@
         <v>1293296</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1279510</v>
+        <v>1278548</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1305808</v>
+        <v>1306330</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.966735259952261</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9564306801518465</v>
+        <v>0.955711241923369</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9760885280638981</v>
+        <v>0.9764783083326768</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2087</v>
@@ -856,19 +856,19 @@
         <v>2238188</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2216177</v>
+        <v>2218862</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2252826</v>
+        <v>2254047</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9678902404325397</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9583716720914495</v>
+        <v>0.9595329991332716</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9742203575423526</v>
+        <v>0.974748147530098</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>17873</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10884</v>
+        <v>11268</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27381</v>
+        <v>28368</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009100423527017199</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005541824700538252</v>
+        <v>0.005737331066013428</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01394191783142049</v>
+        <v>0.01444412490138334</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -981,19 +981,19 @@
         <v>15159</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7817</v>
+        <v>8450</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26172</v>
+        <v>24672</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.008639359815662606</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004454920788837639</v>
+        <v>0.004816039416762118</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0149164679101931</v>
+        <v>0.01406132412627578</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>30</v>
@@ -1002,19 +1002,19 @@
         <v>33031</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22382</v>
+        <v>22264</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>46308</v>
+        <v>47226</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008882871300623867</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006019132778075731</v>
+        <v>0.005987206708228161</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0124531625642353</v>
+        <v>0.01270021257724577</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>1946084</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1936576</v>
+        <v>1935589</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1953073</v>
+        <v>1952689</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9908995764729828</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9860580821685795</v>
+        <v>0.9855558750986166</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9944581752994617</v>
+        <v>0.9942626689339866</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1620</v>
@@ -1052,19 +1052,19 @@
         <v>1739433</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1728420</v>
+        <v>1729920</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1746775</v>
+        <v>1746142</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9913606401843374</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9850835320898075</v>
+        <v>0.9859386758737242</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9955450792111624</v>
+        <v>0.995183960583238</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3459</v>
@@ -1073,19 +1073,19 @@
         <v>3685518</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3672241</v>
+        <v>3671323</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3696167</v>
+        <v>3696285</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9911171286993762</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9875468374357648</v>
+        <v>0.987299787422754</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9939808672219241</v>
+        <v>0.9940127932917718</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>5153</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0</v>
+        <v>1061</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13840</v>
+        <v>14811</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01070960302868215</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0</v>
+        <v>0.002204522961607759</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02876170761385225</v>
+        <v>0.03078058977759007</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1198,19 +1198,19 @@
         <v>6205</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2974</v>
+        <v>2137</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13638</v>
+        <v>12637</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01352936667727839</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006484727031739516</v>
+        <v>0.004660184719074861</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02973661208286806</v>
+        <v>0.02755320284624259</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1219,19 +1219,19 @@
         <v>11358</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5302</v>
+        <v>5306</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21791</v>
+        <v>20787</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01208565541594917</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005641788321004905</v>
+        <v>0.005645645526130584</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02318613813146213</v>
+        <v>0.0221181187376047</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>476028</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>467341</v>
+        <v>466370</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>481181</v>
+        <v>480120</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9892903969713178</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9712382923861465</v>
+        <v>0.9692194102224084</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1</v>
+        <v>0.9977954770383922</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>406</v>
@@ -1269,19 +1269,19 @@
         <v>452426</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>444993</v>
+        <v>445994</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>455657</v>
+        <v>456494</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9864706333227216</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.970263387917132</v>
+        <v>0.9724467971537575</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9935152729682605</v>
+        <v>0.9953398152809252</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>841</v>
@@ -1290,19 +1290,19 @@
         <v>928455</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>918022</v>
+        <v>919026</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>934511</v>
+        <v>934507</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9879143445840508</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9768138618685377</v>
+        <v>0.9778818812623949</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.994358211678995</v>
+        <v>0.9943543544738693</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>52777</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>38487</v>
+        <v>38325</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>68940</v>
+        <v>69232</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01543271836203469</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01125429648105697</v>
+        <v>0.01120671429043012</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02015928497574704</v>
+        <v>0.02024467837805946</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>60</v>
@@ -1415,19 +1415,19 @@
         <v>65865</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>50637</v>
+        <v>49999</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>82560</v>
+        <v>84764</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01854819201757043</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01425993622990211</v>
+        <v>0.01408009441123456</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0232496831524558</v>
+        <v>0.02387019215821451</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>107</v>
@@ -1436,19 +1436,19 @@
         <v>118642</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>98225</v>
+        <v>97717</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>142681</v>
+        <v>144507</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01701978236849924</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01409091484298901</v>
+        <v>0.01401807832275519</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02046838408707913</v>
+        <v>0.02073034206786414</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>3367005</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3350842</v>
+        <v>3350550</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3381295</v>
+        <v>3381457</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9845672816379654</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9798407150242534</v>
+        <v>0.9797553216219406</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9887457035189432</v>
+        <v>0.9887932857095699</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3232</v>
@@ -1486,19 +1486,19 @@
         <v>3485155</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3468460</v>
+        <v>3466256</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3500383</v>
+        <v>3501021</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9814518079824296</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9767503168475448</v>
+        <v>0.9761298078417856</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9857400637700982</v>
+        <v>0.9859199055887665</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6387</v>
@@ -1507,19 +1507,19 @@
         <v>6852159</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6828120</v>
+        <v>6826294</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6872576</v>
+        <v>6873084</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9829802176315008</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9795316159129208</v>
+        <v>0.9792696579321358</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.985909085157011</v>
+        <v>0.9859819216772449</v>
       </c>
     </row>
     <row r="15">
@@ -1850,19 +1850,19 @@
         <v>24331</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16683</v>
+        <v>15981</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34581</v>
+        <v>34776</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03225489105997241</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02211636191491718</v>
+        <v>0.02118508251728935</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04584163934850121</v>
+        <v>0.04610064639332138</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -1871,19 +1871,19 @@
         <v>35792</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24523</v>
+        <v>25766</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>49547</v>
+        <v>50197</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03598423744790967</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0246550183520765</v>
+        <v>0.0259047055012874</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04981337177792426</v>
+        <v>0.05046608321175006</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>59</v>
@@ -1892,19 +1892,19 @@
         <v>60123</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>46836</v>
+        <v>46385</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>76510</v>
+        <v>76169</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03437577018015977</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0267788880534437</v>
+        <v>0.02652050910371425</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04374469212889223</v>
+        <v>0.04354990597957037</v>
       </c>
     </row>
     <row r="5">
@@ -1921,19 +1921,19 @@
         <v>730016</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>719766</v>
+        <v>719571</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>737664</v>
+        <v>738366</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9677451089400276</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9541583606514988</v>
+        <v>0.9538993536066785</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9778836380850828</v>
+        <v>0.9788149174827107</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>860</v>
@@ -1942,19 +1942,19 @@
         <v>958868</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>945113</v>
+        <v>944463</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>970137</v>
+        <v>968894</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9640157625520903</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9501866282220756</v>
+        <v>0.9495339167882496</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9753449816479235</v>
+        <v>0.9740952944987125</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1595</v>
@@ -1963,19 +1963,19 @@
         <v>1688884</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1672497</v>
+        <v>1672838</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1702171</v>
+        <v>1702622</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9656242298198402</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9562553078711078</v>
+        <v>0.95645009402043</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9732211119465564</v>
+        <v>0.9734794908962858</v>
       </c>
     </row>
     <row r="6">
@@ -2067,19 +2067,19 @@
         <v>20087</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12337</v>
+        <v>12750</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31119</v>
+        <v>30457</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009673803352044999</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005941488599413549</v>
+        <v>0.006140655750957603</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01498727065907712</v>
+        <v>0.01466832609469155</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -2088,19 +2088,19 @@
         <v>26971</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18203</v>
+        <v>17985</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39986</v>
+        <v>39836</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01356461798189857</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009154965257883944</v>
+        <v>0.009045363887744727</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02011054661465355</v>
+        <v>0.02003510113774591</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>44</v>
@@ -2109,19 +2109,19 @@
         <v>47057</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>34309</v>
+        <v>34868</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>61979</v>
+        <v>63490</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01157705217034571</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008440678760694641</v>
+        <v>0.008578398578673064</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01524828608217158</v>
+        <v>0.01561993498108917</v>
       </c>
     </row>
     <row r="8">
@@ -2138,19 +2138,19 @@
         <v>2056298</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2045266</v>
+        <v>2045928</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2064048</v>
+        <v>2063635</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.990326196647955</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9850127293409229</v>
+        <v>0.9853316739053085</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9940585114005863</v>
+        <v>0.9938593442490434</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1883</v>
@@ -2159,19 +2159,19 @@
         <v>1961329</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1948314</v>
+        <v>1948464</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1970097</v>
+        <v>1970315</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9864353820181014</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9798894533853465</v>
+        <v>0.9799648988622541</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9908450347421162</v>
+        <v>0.9909546361122553</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3816</v>
@@ -2180,19 +2180,19 @@
         <v>4017628</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4002706</v>
+        <v>4001195</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4030376</v>
+        <v>4029817</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9884229478296543</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9847517139178285</v>
+        <v>0.9843800650189107</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9915593212393055</v>
+        <v>0.9914216014213267</v>
       </c>
     </row>
     <row r="9">
@@ -2284,19 +2284,19 @@
         <v>4619</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1079</v>
+        <v>1187</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11828</v>
+        <v>11745</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008446450983919015</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001972786752367325</v>
+        <v>0.002169720176643279</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02162805562352695</v>
+        <v>0.02147641197448696</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -2305,19 +2305,19 @@
         <v>8373</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3435</v>
+        <v>3746</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16718</v>
+        <v>17056</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01524794973436781</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006254907526197924</v>
+        <v>0.006821513104678845</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03044359401356999</v>
+        <v>0.03106001065316074</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -2326,19 +2326,19 @@
         <v>12993</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6568</v>
+        <v>6783</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23618</v>
+        <v>23730</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01185419451085058</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005992416486725011</v>
+        <v>0.006188303688308086</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02154860326103121</v>
+        <v>0.02165088521088792</v>
       </c>
     </row>
     <row r="11">
@@ -2355,19 +2355,19 @@
         <v>542267</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>535058</v>
+        <v>535141</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>545807</v>
+        <v>545699</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9915535490160809</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9783719443764732</v>
+        <v>0.9785235880255131</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9980272132476363</v>
+        <v>0.9978302798233567</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>519</v>
@@ -2376,19 +2376,19 @@
         <v>540767</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>532422</v>
+        <v>532084</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>545705</v>
+        <v>545394</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9847520502656322</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9695564059864298</v>
+        <v>0.9689399893468392</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.993745092473802</v>
+        <v>0.9931784868953212</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1016</v>
@@ -2397,19 +2397,19 @@
         <v>1083034</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1072409</v>
+        <v>1072297</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1089459</v>
+        <v>1089244</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9881458054891494</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9784513967389687</v>
+        <v>0.9783491147891121</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.994007583513275</v>
+        <v>0.993811696311692</v>
       </c>
     </row>
     <row r="12">
@@ -2501,19 +2501,19 @@
         <v>49037</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36923</v>
+        <v>38096</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>63894</v>
+        <v>64370</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01451826748606298</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01093155488088127</v>
+        <v>0.01127899902174878</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01891701460999006</v>
+        <v>0.01905793593998526</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>64</v>
@@ -2522,19 +2522,19 @@
         <v>71136</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>55022</v>
+        <v>54319</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>89346</v>
+        <v>90032</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0201398238421465</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01557784298746195</v>
+        <v>0.01537878720733126</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02529551642137012</v>
+        <v>0.02548975941307124</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>114</v>
@@ -2543,19 +2543,19 @@
         <v>120173</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>98856</v>
+        <v>100074</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>142867</v>
+        <v>144617</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01739188707302907</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01430678711024174</v>
+        <v>0.01448305080736262</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02067623098440538</v>
+        <v>0.02092957658052918</v>
       </c>
     </row>
     <row r="14">
@@ -2572,19 +2572,19 @@
         <v>3328581</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3313724</v>
+        <v>3313248</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3340695</v>
+        <v>3339522</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.985481732513937</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9810829853900094</v>
+        <v>0.9809420640600147</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9890684451191187</v>
+        <v>0.9887210009782511</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3262</v>
@@ -2593,19 +2593,19 @@
         <v>3460964</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3442754</v>
+        <v>3442068</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3477078</v>
+        <v>3477781</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9798601761578535</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9747044835786299</v>
+        <v>0.974510240586929</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9844221570125382</v>
+        <v>0.9846212127926687</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6427</v>
@@ -2614,19 +2614,19 @@
         <v>6789545</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6766851</v>
+        <v>6765101</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6810862</v>
+        <v>6809644</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9826081129269709</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9793237690155939</v>
+        <v>0.9790704234194705</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9856932128897576</v>
+        <v>0.9855169491926372</v>
       </c>
     </row>
     <row r="15">
@@ -2957,19 +2957,19 @@
         <v>62258</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>50542</v>
+        <v>50576</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>74447</v>
+        <v>75673</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1077986934301845</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08751277047120803</v>
+        <v>0.08757032302642978</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.128903260957093</v>
+        <v>0.1310256812604682</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>197</v>
@@ -2978,19 +2978,19 @@
         <v>100767</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>87778</v>
+        <v>88044</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>114813</v>
+        <v>115989</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1227818080820126</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1069545002061571</v>
+        <v>0.1072791687986261</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1398969787463688</v>
+        <v>0.1413295910861199</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>302</v>
@@ -2999,19 +2999,19 @@
         <v>163025</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>146189</v>
+        <v>145009</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>183540</v>
+        <v>183141</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1165930521202308</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1045522801019435</v>
+        <v>0.1037080041570337</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1312645621652979</v>
+        <v>0.1309792915841498</v>
       </c>
     </row>
     <row r="5">
@@ -3028,19 +3028,19 @@
         <v>515284</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>503095</v>
+        <v>501869</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>527000</v>
+        <v>526966</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8922013065698154</v>
+        <v>0.8922013065698153</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8710967390429071</v>
+        <v>0.8689743187395317</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9124872295287917</v>
+        <v>0.9124296769735699</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1228</v>
@@ -3049,19 +3049,19 @@
         <v>719933</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>705887</v>
+        <v>704711</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>732922</v>
+        <v>732656</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8772181919179873</v>
+        <v>0.8772181919179872</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8601030212536317</v>
+        <v>0.85867040891388</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8930454997938434</v>
+        <v>0.8927208312013738</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1813</v>
@@ -3070,19 +3070,19 @@
         <v>1235217</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1214702</v>
+        <v>1215101</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1252053</v>
+        <v>1253233</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8834069478797693</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8687354378347021</v>
+        <v>0.8690207084158503</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8954477198980563</v>
+        <v>0.8962919958429664</v>
       </c>
     </row>
     <row r="6">
@@ -3174,19 +3174,19 @@
         <v>75995</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>62148</v>
+        <v>61897</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>93497</v>
+        <v>93585</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03410089804407222</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02788727030956065</v>
+        <v>0.02777498664011796</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04195477647025316</v>
+        <v>0.04199394587933306</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>92</v>
@@ -3195,19 +3195,19 @@
         <v>52966</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>42983</v>
+        <v>42189</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>65509</v>
+        <v>65919</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02442324469436373</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01981998741945155</v>
+        <v>0.01945366631430692</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0302066750041633</v>
+        <v>0.03039581149643943</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>190</v>
@@ -3216,19 +3216,19 @@
         <v>128961</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>110815</v>
+        <v>109687</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>150241</v>
+        <v>147820</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.02932792151892375</v>
+        <v>0.02932792151892376</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02520107710695014</v>
+        <v>0.02494452296978456</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03416718432510602</v>
+        <v>0.03361665888035559</v>
       </c>
     </row>
     <row r="8">
@@ -3245,19 +3245,19 @@
         <v>2152535</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2135033</v>
+        <v>2134945</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2166382</v>
+        <v>2166633</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9658991019559278</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9580452235297467</v>
+        <v>0.958006054120667</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.972112729690439</v>
+        <v>0.9722250133598822</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2825</v>
@@ -3266,19 +3266,19 @@
         <v>2115724</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2103181</v>
+        <v>2102771</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2125707</v>
+        <v>2126501</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9755767553056363</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9697933249958365</v>
+        <v>0.9696041885035608</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9801800125805487</v>
+        <v>0.980546333685693</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4717</v>
@@ -3287,19 +3287,19 @@
         <v>4268259</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4246979</v>
+        <v>4249400</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4286405</v>
+        <v>4287533</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9706720784810761</v>
+        <v>0.9706720784810763</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9658328156748939</v>
+        <v>0.9663833411196444</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9747989228930496</v>
+        <v>0.9750554770302154</v>
       </c>
     </row>
     <row r="9">
@@ -3391,19 +3391,19 @@
         <v>25189</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17178</v>
+        <v>17749</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35761</v>
+        <v>36130</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03539859920044469</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02413978016603059</v>
+        <v>0.0249434966701069</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05025572821456485</v>
+        <v>0.05077381999898135</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -3412,19 +3412,19 @@
         <v>20082</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14245</v>
+        <v>13473</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27959</v>
+        <v>27281</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.02735791798429642</v>
+        <v>0.02735791798429641</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01940659280972093</v>
+        <v>0.01835419911140683</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03808962843168741</v>
+        <v>0.03716503101476545</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>65</v>
@@ -3433,19 +3433,19 @@
         <v>45271</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>35415</v>
+        <v>35247</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>59966</v>
+        <v>57354</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03131581981689571</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02449830652261842</v>
+        <v>0.02438179862761177</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04148111634340493</v>
+        <v>0.03967395283143321</v>
       </c>
     </row>
     <row r="11">
@@ -3462,19 +3462,19 @@
         <v>686398</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>675826</v>
+        <v>675457</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>694409</v>
+        <v>693838</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9646014007995554</v>
+        <v>0.9646014007995551</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9497442717854352</v>
+        <v>0.9492261800010185</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9758602198339696</v>
+        <v>0.9750565033298931</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>968</v>
@@ -3483,19 +3483,19 @@
         <v>713957</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>706080</v>
+        <v>706758</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>719794</v>
+        <v>720566</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9726420820157037</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9619103715683126</v>
+        <v>0.962834968985235</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9805934071902789</v>
+        <v>0.9816458008885931</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1618</v>
@@ -3504,19 +3504,19 @@
         <v>1400355</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1385660</v>
+        <v>1388272</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1410211</v>
+        <v>1410379</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9686841801831044</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9585188836565949</v>
+        <v>0.9603260471685667</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9755016934773816</v>
+        <v>0.9756182013723882</v>
       </c>
     </row>
     <row r="12">
@@ -3608,19 +3608,19 @@
         <v>163442</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>144127</v>
+        <v>143481</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>185989</v>
+        <v>188487</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04646337982999605</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04097233252660339</v>
+        <v>0.04078882478629667</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05287292900449483</v>
+        <v>0.05358320806427759</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>323</v>
@@ -3629,19 +3629,19 @@
         <v>173815</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>153105</v>
+        <v>154695</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>193669</v>
+        <v>193328</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04668150227610057</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04111949963150264</v>
+        <v>0.04154639025385074</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.052013556194524</v>
+        <v>0.05192217355798824</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>557</v>
@@ -3650,19 +3650,19 @@
         <v>337258</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>308753</v>
+        <v>305383</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>366900</v>
+        <v>369018</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04657554023192866</v>
+        <v>0.04657554023192865</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04263909626948303</v>
+        <v>0.04217361960153496</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05066913294710348</v>
+        <v>0.05096170113782227</v>
       </c>
     </row>
     <row r="14">
@@ -3679,19 +3679,19 @@
         <v>3354217</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3331670</v>
+        <v>3329172</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3373532</v>
+        <v>3374178</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.953536620170004</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9471270709955051</v>
+        <v>0.9464167919357223</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9590276674733965</v>
+        <v>0.959211175213703</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5021</v>
@@ -3700,19 +3700,19 @@
         <v>3549613</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3529759</v>
+        <v>3530100</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3570323</v>
+        <v>3568733</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9533184977238995</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.947986443805476</v>
+        <v>0.9480778264420118</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9588805003684975</v>
+        <v>0.9584536097461495</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8148</v>
@@ -3721,19 +3721,19 @@
         <v>6903829</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6874187</v>
+        <v>6872069</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6932334</v>
+        <v>6935704</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9534244597680714</v>
+        <v>0.9534244597680712</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9493308670528966</v>
+        <v>0.9490382988621781</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.957360903730517</v>
+        <v>0.9578263803984663</v>
       </c>
     </row>
     <row r="15">
